--- a/设定/数值设定/农业机制相关函数.xlsx
+++ b/设定/数值设定/农业机制相关函数.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tang\Documents\GitHub\Aurora-of-Magiscientia\设定\数值设定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2302450A-0B10-4497-8392-3767CC2D5A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11371912-321F-4D35-A877-BC10A057F6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="13008" windowWidth="23256" windowHeight="12456" xr2:uid="{BD60E949-BA8F-486A-A2C0-B627FB680A6B}"/>
+    <workbookView xWindow="12707" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{BD60E949-BA8F-486A-A2C0-B627FB680A6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>每亩劳动</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,15 +54,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>throughput_mult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>两点之间斜率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>occuapancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grain_mult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>occupancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gig_mult</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -842,6 +850,368 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$38:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$38:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C52-41C3-9070-E40140C41C12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1720690832"/>
+        <c:axId val="1720692496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1720690832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1720692496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1720692496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1720690832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -922,6 +1292,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1439,6 +1849,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2023,6 +2949,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>582082</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>763269</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>35983</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECA7DAD-7720-C823-832F-CFB180C9D213}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2328,21 +3290,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0665EED-A6D6-49C8-916D-9E7346D52121}">
-  <dimension ref="J9:N25"/>
+  <dimension ref="E9:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="A5:K5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36:E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="11.29296875" customWidth="1"/>
-    <col min="12" max="12" width="14.76171875" customWidth="1"/>
-    <col min="13" max="13" width="11.17578125" customWidth="1"/>
-    <col min="14" max="14" width="13.87890625" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="10:14" x14ac:dyDescent="0.25">
       <c r="K9" t="s">
         <v>0</v>
       </c>
@@ -2353,10 +3315,10 @@
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
         <v>3</v>
       </c>
@@ -2371,7 +3333,7 @@
         <v>1.4454545454545455</v>
       </c>
     </row>
-    <row r="11" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="10:14" x14ac:dyDescent="0.25">
       <c r="K11">
         <v>0</v>
       </c>
@@ -2382,7 +3344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="10:14" x14ac:dyDescent="0.25">
       <c r="K12">
         <v>4</v>
       </c>
@@ -2398,7 +3360,7 @@
         <v>1.1285714285714286</v>
       </c>
     </row>
-    <row r="13" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="10:14" x14ac:dyDescent="0.25">
       <c r="K13">
         <v>8</v>
       </c>
@@ -2414,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="10:14" x14ac:dyDescent="0.25">
       <c r="K14">
         <v>10</v>
       </c>
@@ -2422,7 +3384,7 @@
         <v>15</v>
       </c>
       <c r="M14">
-        <f t="shared" ref="M14:M16" si="0">L14/K14</f>
+        <f t="shared" ref="M14" si="0">L14/K14</f>
         <v>1.5</v>
       </c>
       <c r="N14">
@@ -2430,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="10:14" x14ac:dyDescent="0.25">
       <c r="K15">
         <v>13</v>
       </c>
@@ -2446,7 +3408,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="16" spans="10:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="10:14" x14ac:dyDescent="0.25">
       <c r="K16">
         <v>16</v>
       </c>
@@ -2462,7 +3424,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="17" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K17">
         <v>20</v>
       </c>
@@ -2478,82 +3440,138 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="18" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K18" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" t="s">
         <v>6</v>
       </c>
-      <c r="L18" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="19" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K19">
-        <f>K11/20</f>
+        <f t="shared" ref="K19:K25" si="2">K11/20</f>
         <v>0</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19:L24" si="2">M11-1</f>
+        <f t="shared" ref="L19:L24" si="3">M11-1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K20">
-        <f>K12/20</f>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="L20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K21">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.4</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>0.625</v>
       </c>
     </row>
-    <row r="21" spans="11:14" x14ac:dyDescent="0.45">
-      <c r="K21">
-        <f>K13/20</f>
-        <v>0.4</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="2"/>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="22" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K22">
-        <f>K14/20</f>
-        <v>0.5</v>
-      </c>
-      <c r="L22">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="23" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K23">
-        <f>K15/20</f>
+        <f t="shared" si="2"/>
         <v>0.65</v>
       </c>
       <c r="L23">
+        <f t="shared" si="3"/>
+        <v>0.34615384615384626</v>
+      </c>
+    </row>
+    <row r="24" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K24">
         <f t="shared" si="2"/>
-        <v>0.34615384615384626</v>
+        <v>0.8</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>0.21875</v>
       </c>
     </row>
-    <row r="24" spans="11:14" x14ac:dyDescent="0.45">
-      <c r="K24">
-        <f>K16/20</f>
-        <v>0.8</v>
-      </c>
-      <c r="L24">
+    <row r="25" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K25">
         <f t="shared" si="2"/>
-        <v>0.21875</v>
-      </c>
-    </row>
-    <row r="25" spans="11:14" x14ac:dyDescent="0.45">
-      <c r="K25">
-        <f>K17/20</f>
         <v>1</v>
       </c>
       <c r="L25">
         <f>M17-1</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>0.2</v>
+      </c>
+      <c r="F38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>0.4</v>
+      </c>
+      <c r="F39">
+        <v>-0.85</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>0.6</v>
+      </c>
+      <c r="F40">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>0.8</v>
+      </c>
+      <c r="F41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/设定/数值设定/农业机制相关函数.xlsx
+++ b/设定/数值设定/农业机制相关函数.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tang\Documents\GitHub\Aurora-of-Magiscientia\设定\数值设定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11371912-321F-4D35-A877-BC10A057F6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AFE940-8368-45F4-A98E-D0C92125EDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12707" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{BD60E949-BA8F-486A-A2C0-B627FB680A6B}"/>
+    <workbookView xWindow="-23148" yWindow="12696" windowWidth="23256" windowHeight="12456" xr2:uid="{BD60E949-BA8F-486A-A2C0-B627FB680A6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>每亩劳动</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,15 +62,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>grain_mult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>occupancy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gig_mult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_mult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1212,6 +1216,380 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17426291176231309"/>
+                  <c:y val="-0.48290755322251383"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$7:$Q$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$7:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15C7-4B61-B9C3-58969BBF8704}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="64914799"/>
+        <c:axId val="64938927"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="64914799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64938927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="64938927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64914799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1332,6 +1710,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2365,6 +2783,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2985,6 +3919,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>86783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>486833</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>162983</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D78EEF-42CE-06D2-81C5-148F597464DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3290,21 +4260,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0665EED-A6D6-49C8-916D-9E7346D52121}">
-  <dimension ref="E9:N42"/>
+  <dimension ref="E5:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:E42"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" customWidth="1"/>
-    <col min="13" max="13" width="11.21875" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.3515625" customWidth="1"/>
+    <col min="12" max="12" width="14.76171875" customWidth="1"/>
+    <col min="13" max="13" width="11.234375" customWidth="1"/>
+    <col min="14" max="14" width="13.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="10:18" x14ac:dyDescent="0.45">
+      <c r="Q5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="10:18" x14ac:dyDescent="0.45">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="10:18" x14ac:dyDescent="0.45">
+      <c r="Q7">
+        <v>0.2</v>
+      </c>
+      <c r="R7">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8" spans="10:18" x14ac:dyDescent="0.45">
+      <c r="Q8">
+        <v>0.4</v>
+      </c>
+      <c r="R8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="10:18" x14ac:dyDescent="0.45">
       <c r="K9" t="s">
         <v>0</v>
       </c>
@@ -3317,8 +4319,14 @@
       <c r="N9" t="s">
         <v>4</v>
       </c>
+      <c r="Q9">
+        <v>0.5</v>
+      </c>
+      <c r="R9">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="10" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="10:18" x14ac:dyDescent="0.45">
       <c r="J10" t="s">
         <v>3</v>
       </c>
@@ -3332,8 +4340,14 @@
         <f>L10/K10</f>
         <v>1.4454545454545455</v>
       </c>
+      <c r="Q10">
+        <v>0.65</v>
+      </c>
+      <c r="R10">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="11" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="10:18" x14ac:dyDescent="0.45">
       <c r="K11">
         <v>0</v>
       </c>
@@ -3343,8 +4357,14 @@
       <c r="M11">
         <v>2</v>
       </c>
+      <c r="Q11">
+        <v>0.8</v>
+      </c>
+      <c r="R11">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="12" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="10:18" x14ac:dyDescent="0.45">
       <c r="K12">
         <v>4</v>
       </c>
@@ -3359,8 +4379,14 @@
         <f>(L12-L10)/(K12-K10)</f>
         <v>1.1285714285714286</v>
       </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="10:18" x14ac:dyDescent="0.45">
       <c r="K13">
         <v>8</v>
       </c>
@@ -3376,7 +4402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="10:18" x14ac:dyDescent="0.45">
       <c r="K14">
         <v>10</v>
       </c>
@@ -3392,7 +4418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="10:18" x14ac:dyDescent="0.45">
       <c r="K15">
         <v>13</v>
       </c>
@@ -3408,7 +4434,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="16" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="10:18" x14ac:dyDescent="0.45">
       <c r="K16">
         <v>16</v>
       </c>
@@ -3424,7 +4450,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="17" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K17">
         <v>20</v>
       </c>
@@ -3440,15 +4466,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="18" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K18" t="s">
         <v>5</v>
       </c>
       <c r="L18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="19" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K19">
         <f t="shared" ref="K19:K25" si="2">K11/20</f>
         <v>0</v>
@@ -3458,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K20">
         <f t="shared" si="2"/>
         <v>0.2</v>
@@ -3468,7 +4494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K21">
         <f t="shared" si="2"/>
         <v>0.4</v>
@@ -3478,7 +4504,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="22" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K22">
         <f t="shared" si="2"/>
         <v>0.5</v>
@@ -3488,7 +4514,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K23">
         <f t="shared" si="2"/>
         <v>0.65</v>
@@ -3498,7 +4524,7 @@
         <v>0.34615384615384626</v>
       </c>
     </row>
-    <row r="24" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K24">
         <f t="shared" si="2"/>
         <v>0.8</v>
@@ -3508,7 +4534,7 @@
         <v>0.21875</v>
       </c>
     </row>
-    <row r="25" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3518,15 +4544,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
         <v>7</v>
       </c>
-      <c r="F36" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E37">
         <v>0</v>
       </c>
@@ -3534,7 +4560,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E38">
         <v>0.2</v>
       </c>
@@ -3542,7 +4568,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E39">
         <v>0.4</v>
       </c>
@@ -3550,7 +4576,7 @@
         <v>-0.85</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E40">
         <v>0.6</v>
       </c>
@@ -3558,7 +4584,7 @@
         <v>-0.35</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E41">
         <v>0.8</v>
       </c>
@@ -3566,7 +4592,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E42">
         <v>1</v>
       </c>
